--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -721,23 +721,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1811,57 +1811,6 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>223962</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CFC8EFD-7B6C-4413-BAAC-D7E8FADEB088}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="13889162" cy="1104900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2204,8 +2153,8 @@
   </sheetPr>
   <dimension ref="A1:AJ50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2221,7 +2170,7 @@
     <col min="35" max="36" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="78.599999999999994" customHeight="1">
+    <row r="1" spans="1:36" ht="18.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2297,12 +2246,9 @@
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
     </row>
-    <row r="3" spans="1:36" ht="33.75">
+    <row r="3" spans="1:36" ht="9" customHeight="1">
       <c r="A3" s="44"/>
-      <c r="B3" s="46" t="str">
-        <f>HYPERLINK("https://www.teamgantt.com/signup?utm_source=google-sheets-gantt-template&amp;utm_medium=download&amp;utm_campaign=google-sheets-gantt-template","Build better gantt charts with TeamGantt for FREE!")</f>
-        <v>Build better gantt charts with TeamGantt for FREE!</v>
-      </c>
+      <c r="B3" s="46"/>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
@@ -3323,6 +3269,13 @@
     <row r="50" ht="12.75"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="F6:F7"/>
@@ -3331,13 +3284,6 @@
     <mergeCell ref="U6:Y6"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="P6:T6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:J13 J15:J18 J20:J24 J26:J29">
     <cfRule type="colorScale" priority="1">
@@ -3372,7 +3318,7 @@
   <dimension ref="A1:AH50"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4314,11 +4260,6 @@
     <row r="50" ht="12.75"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:R6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E6:E7"/>
@@ -4328,6 +4269,11 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="H9:H13 H15:H18 H20:H24 H26:H29">
     <cfRule type="colorScale" priority="1">
@@ -4508,7 +4454,7 @@
       <c r="BO2" s="2"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="85" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="82"/>
@@ -4733,93 +4679,93 @@
       <c r="F6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="90" t="s">
+      <c r="G6" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="88" t="s">
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="86" t="s">
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="88" t="s">
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="86" t="s">
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="88" t="s">
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="87"/>
-      <c r="AI6" s="87"/>
-      <c r="AJ6" s="87"/>
-      <c r="AK6" s="87"/>
-      <c r="AL6" s="86" t="s">
+      <c r="AH6" s="84"/>
+      <c r="AI6" s="84"/>
+      <c r="AJ6" s="84"/>
+      <c r="AK6" s="84"/>
+      <c r="AL6" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="AM6" s="87"/>
-      <c r="AN6" s="87"/>
-      <c r="AO6" s="87"/>
-      <c r="AP6" s="87"/>
-      <c r="AQ6" s="88" t="s">
+      <c r="AM6" s="84"/>
+      <c r="AN6" s="84"/>
+      <c r="AO6" s="84"/>
+      <c r="AP6" s="84"/>
+      <c r="AQ6" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AR6" s="87"/>
-      <c r="AS6" s="87"/>
-      <c r="AT6" s="87"/>
-      <c r="AU6" s="87"/>
-      <c r="AV6" s="86" t="s">
+      <c r="AR6" s="84"/>
+      <c r="AS6" s="84"/>
+      <c r="AT6" s="84"/>
+      <c r="AU6" s="84"/>
+      <c r="AV6" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="AW6" s="87"/>
-      <c r="AX6" s="87"/>
-      <c r="AY6" s="87"/>
-      <c r="AZ6" s="87"/>
-      <c r="BA6" s="88" t="s">
+      <c r="AW6" s="84"/>
+      <c r="AX6" s="84"/>
+      <c r="AY6" s="84"/>
+      <c r="AZ6" s="84"/>
+      <c r="BA6" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="BB6" s="87"/>
-      <c r="BC6" s="87"/>
-      <c r="BD6" s="87"/>
-      <c r="BE6" s="87"/>
-      <c r="BF6" s="86" t="s">
+      <c r="BB6" s="84"/>
+      <c r="BC6" s="84"/>
+      <c r="BD6" s="84"/>
+      <c r="BE6" s="84"/>
+      <c r="BF6" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="BG6" s="87"/>
-      <c r="BH6" s="87"/>
-      <c r="BI6" s="87"/>
-      <c r="BJ6" s="87"/>
-      <c r="BK6" s="88" t="s">
+      <c r="BG6" s="84"/>
+      <c r="BH6" s="84"/>
+      <c r="BI6" s="84"/>
+      <c r="BJ6" s="84"/>
+      <c r="BK6" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="BL6" s="87"/>
-      <c r="BM6" s="87"/>
-      <c r="BN6" s="87"/>
-      <c r="BO6" s="87"/>
+      <c r="BL6" s="84"/>
+      <c r="BM6" s="84"/>
+      <c r="BN6" s="84"/>
+      <c r="BO6" s="84"/>
     </row>
     <row r="7" spans="1:67" ht="15">
       <c r="A7" s="78"/>
@@ -4828,7 +4774,7 @@
       <c r="D7" s="78"/>
       <c r="E7" s="78"/>
       <c r="F7" s="78"/>
-      <c r="G7" s="91"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
@@ -5015,11 +4961,11 @@
         <v>24</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
@@ -5566,11 +5512,11 @@
         <v>36</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
       <c r="H15" s="36"/>
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
@@ -5961,11 +5907,11 @@
         <v>41</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
       <c r="H20" s="36"/>
       <c r="I20" s="37"/>
       <c r="J20" s="38"/>
@@ -6518,11 +6464,11 @@
         <v>48</v>
       </c>
       <c r="B27" s="35"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
       <c r="H27" s="36"/>
       <c r="I27" s="37"/>
       <c r="J27" s="38"/>
@@ -9889,6 +9835,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="BF6:BJ6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="W6:AA6"/>
     <mergeCell ref="BK6:BO6"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="A3:G3"/>
@@ -9905,14 +9859,6 @@
     <mergeCell ref="AG6:AK6"/>
     <mergeCell ref="AB6:AF6"/>
     <mergeCell ref="R6:V6"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="BF6:BJ6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="W6:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:G14 G16:G19 G21:G26 G28:G31">
     <cfRule type="colorScale" priority="1">

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="74">
   <si>
     <t>GANTT CHART TEMPLATE</t>
   </si>
@@ -235,17 +235,27 @@
   <si>
     <t>Publish Calculator</t>
   </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>ESTIMATED TIME</t>
+  </si>
+  <si>
+    <t>MEMBER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="m&quot;/&quot;d"/>
     <numFmt numFmtId="166" formatCode="m/d"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -324,8 +334,15 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,8 +433,13 @@
         <bgColor rgb="FFE5F5ED"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -545,11 +567,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -721,25 +830,41 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1739,7 +1864,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2153,15 +2277,17 @@
   </sheetPr>
   <dimension ref="A1:AJ50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="9" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="9" width="12.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
     <col min="11" max="12" width="7.28515625" customWidth="1"/>
     <col min="13" max="14" width="3.7109375" customWidth="1"/>
@@ -3252,30 +3378,99 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="36" ht="12.75"/>
-    <row r="37" ht="12.75"/>
-    <row r="38" ht="12.75"/>
-    <row r="39" ht="12.75"/>
-    <row r="40" ht="12.75"/>
-    <row r="41" ht="12.75"/>
-    <row r="42" ht="12.75"/>
-    <row r="43" ht="12.75"/>
-    <row r="44" ht="12.75"/>
-    <row r="45" ht="12.75"/>
-    <row r="46" ht="12.75"/>
-    <row r="47" ht="12.75"/>
-    <row r="48" ht="12.75"/>
-    <row r="49" ht="12.75"/>
-    <row r="50" ht="12.75"/>
+    <row r="34" spans="2:4" ht="24.75" customHeight="1" thickBot="1">
+      <c r="B34" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="98" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B35" s="92"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="93"/>
+    </row>
+    <row r="36" spans="2:4" ht="12.75">
+      <c r="B36" s="92"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="93"/>
+    </row>
+    <row r="37" spans="2:4" ht="12.75">
+      <c r="B37" s="92"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="93"/>
+    </row>
+    <row r="38" spans="2:4" ht="12.75">
+      <c r="B38" s="92"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="93"/>
+    </row>
+    <row r="39" spans="2:4" ht="12.75">
+      <c r="B39" s="92"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="93"/>
+    </row>
+    <row r="40" spans="2:4" ht="12.75">
+      <c r="B40" s="92"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="93"/>
+    </row>
+    <row r="41" spans="2:4" ht="12.75">
+      <c r="B41" s="92"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="93"/>
+    </row>
+    <row r="42" spans="2:4" ht="12.75">
+      <c r="B42" s="92"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="93"/>
+    </row>
+    <row r="43" spans="2:4" ht="12.75">
+      <c r="B43" s="92"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="93"/>
+    </row>
+    <row r="44" spans="2:4" ht="12.75">
+      <c r="B44" s="92"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="93"/>
+    </row>
+    <row r="45" spans="2:4" ht="12.75">
+      <c r="B45" s="92"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="93"/>
+    </row>
+    <row r="46" spans="2:4" ht="12.75">
+      <c r="B46" s="92"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="93"/>
+    </row>
+    <row r="47" spans="2:4" ht="12.75">
+      <c r="B47" s="92"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="93"/>
+    </row>
+    <row r="48" spans="2:4" ht="12.75">
+      <c r="B48" s="92"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="93"/>
+    </row>
+    <row r="49" spans="2:4" ht="12.75">
+      <c r="B49" s="92"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="93"/>
+    </row>
+    <row r="50" spans="2:4" ht="13.5" thickBot="1">
+      <c r="B50" s="94"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="95"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="F6:F7"/>
@@ -3284,6 +3479,13 @@
     <mergeCell ref="U6:Y6"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="P6:T6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:J13 J15:J18 J20:J24 J26:J29">
     <cfRule type="colorScale" priority="1">
@@ -4260,6 +4462,11 @@
     <row r="50" ht="12.75"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:R6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E6:E7"/>
@@ -4269,11 +4476,6 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="H9:H13 H15:H18 H20:H24 H26:H29">
     <cfRule type="colorScale" priority="1">
@@ -4454,7 +4656,7 @@
       <c r="BO2" s="2"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="89" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="82"/>
@@ -4679,93 +4881,93 @@
       <c r="F6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="83" t="s">
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="88" t="s">
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="83" t="s">
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="88" t="s">
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="83" t="s">
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="84"/>
-      <c r="AJ6" s="84"/>
-      <c r="AK6" s="84"/>
-      <c r="AL6" s="88" t="s">
+      <c r="AH6" s="87"/>
+      <c r="AI6" s="87"/>
+      <c r="AJ6" s="87"/>
+      <c r="AK6" s="87"/>
+      <c r="AL6" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="AM6" s="84"/>
-      <c r="AN6" s="84"/>
-      <c r="AO6" s="84"/>
-      <c r="AP6" s="84"/>
-      <c r="AQ6" s="83" t="s">
+      <c r="AM6" s="87"/>
+      <c r="AN6" s="87"/>
+      <c r="AO6" s="87"/>
+      <c r="AP6" s="87"/>
+      <c r="AQ6" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="84"/>
-      <c r="AT6" s="84"/>
-      <c r="AU6" s="84"/>
-      <c r="AV6" s="88" t="s">
+      <c r="AR6" s="87"/>
+      <c r="AS6" s="87"/>
+      <c r="AT6" s="87"/>
+      <c r="AU6" s="87"/>
+      <c r="AV6" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="AW6" s="84"/>
-      <c r="AX6" s="84"/>
-      <c r="AY6" s="84"/>
-      <c r="AZ6" s="84"/>
-      <c r="BA6" s="83" t="s">
+      <c r="AW6" s="87"/>
+      <c r="AX6" s="87"/>
+      <c r="AY6" s="87"/>
+      <c r="AZ6" s="87"/>
+      <c r="BA6" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="BB6" s="84"/>
-      <c r="BC6" s="84"/>
-      <c r="BD6" s="84"/>
-      <c r="BE6" s="84"/>
-      <c r="BF6" s="88" t="s">
+      <c r="BB6" s="87"/>
+      <c r="BC6" s="87"/>
+      <c r="BD6" s="87"/>
+      <c r="BE6" s="87"/>
+      <c r="BF6" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="BG6" s="84"/>
-      <c r="BH6" s="84"/>
-      <c r="BI6" s="84"/>
-      <c r="BJ6" s="84"/>
-      <c r="BK6" s="83" t="s">
+      <c r="BG6" s="87"/>
+      <c r="BH6" s="87"/>
+      <c r="BI6" s="87"/>
+      <c r="BJ6" s="87"/>
+      <c r="BK6" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="BL6" s="84"/>
-      <c r="BM6" s="84"/>
-      <c r="BN6" s="84"/>
-      <c r="BO6" s="84"/>
+      <c r="BL6" s="87"/>
+      <c r="BM6" s="87"/>
+      <c r="BN6" s="87"/>
+      <c r="BO6" s="87"/>
     </row>
     <row r="7" spans="1:67" ht="15">
       <c r="A7" s="78"/>
@@ -4774,7 +4976,7 @@
       <c r="D7" s="78"/>
       <c r="E7" s="78"/>
       <c r="F7" s="78"/>
-      <c r="G7" s="87"/>
+      <c r="G7" s="91"/>
       <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
@@ -4961,11 +5163,11 @@
         <v>24</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
@@ -5512,11 +5714,11 @@
         <v>36</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
       <c r="H15" s="36"/>
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
@@ -5907,11 +6109,11 @@
         <v>41</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
       <c r="H20" s="36"/>
       <c r="I20" s="37"/>
       <c r="J20" s="38"/>
@@ -6464,11 +6666,11 @@
         <v>48</v>
       </c>
       <c r="B27" s="35"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
       <c r="H27" s="36"/>
       <c r="I27" s="37"/>
       <c r="J27" s="38"/>
@@ -9835,14 +10037,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="BF6:BJ6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="W6:AA6"/>
     <mergeCell ref="BK6:BO6"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="A3:G3"/>
@@ -9859,6 +10053,14 @@
     <mergeCell ref="AG6:AK6"/>
     <mergeCell ref="AB6:AF6"/>
     <mergeCell ref="R6:V6"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="BF6:BJ6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="W6:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:G14 G16:G19 G21:G26 G28:G31">
     <cfRule type="colorScale" priority="1">
